--- a/Machint_Employee_Details.xlsx
+++ b/Machint_Employee_Details.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21903"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8610A61-1013-4312-84EE-4AD5A87A6675}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9011525E-5060-4890-BB4B-EC0C64E68B61}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -436,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection sqref="A1:R1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
